--- a/biology/Botanique/Caryota/Caryota.xlsx
+++ b/biology/Botanique/Caryota/Caryota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caryota est un genre de plantes de la famille des Arecaceae (les palmiers).
 Parmi les palmiers appartenant au genre Caryota, le palmier céleri  (Caryota mitis) est un palmier originaire d'Indonésie. L'ensemble des Caryota sont également appelés Palmiers queue-de-poisson.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stipe : le stipe est solitaire, et est de taille moyenne à grande. Il forme généralement des pousses adventives.
 Feuilles : les feuilles sont bipennées. Les pennes sont triangulaires ou cunéiformes, et irrégulièrement dentées sur les bords.
@@ -545,7 +559,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Coryphoideae
 Tribu des Caryoteae
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Régions tropicales du sous-continent indien, de l'Asie du Sud-Est et de l'Océanie.
 Les espèces poussent généralement dans les forêts tropicales humides, dans les régions montagneuses subtropicales, sur les pentes ou crêtes montagneuses.
@@ -610,7 +628,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est souvent planté pour sa valeur ornementale.
 </t>
@@ -641,7 +661,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces sont résistantes et s’adaptent facilement à la culture. Elles nécessitent de la lumière et une bonne humidité.
 </t>
@@ -672,7 +694,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Caryota alberti       F.Muell. ex H.Wendl., Linnaea 39: 221 (1875).
 Caryota angustifolia  Zumaidar &amp; Jeanson, Syst. Bot. 36: 600 (2011).
@@ -686,8 +710,8 @@
 Caryota ophiopellis   Dowe, Austral. Syst. Bot. 9: 20 (1996).
 Caryota rumphiana     Mart., Hist. Nat. Palm. 3: 195 (1838).
 Caryota sympetala     Gagnep., Notul. Syst. (Paris) 6: 151 (1937).
-Caryota urens         L., Sp. Pl.: 1189 (1753)[3].
-Caryota zebrina       Hambali &amp; al., Palms 44: 171 (2000)  [2]*.
+Caryota urens         L., Sp. Pl.: 1189 (1753).
+Caryota zebrina       Hambali &amp; al., Palms 44: 171 (2000)  *.
 non placé
 Caryota elegans</t>
         </is>
